--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2661698.804049265</v>
+        <v>2659446.724338059</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>94.81275980261418</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>128.7363964403894</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>94.41743113184214</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>141.7313422639041</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,7 +874,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>242.8528437613032</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>16.61609021059857</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>99.84759100840529</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039628</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>14.95687341106454</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>54.92606983771212</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223835</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>246.8141177896371</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.03063761899524</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>77.73359659137228</v>
+        <v>95.21019414969332</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654138</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180638</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180638</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686089</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986317</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.4781294962283</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C4" t="n">
-        <v>504.4781294962283</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>504.4781294962283</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5650359138352</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>209.6750884159249</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>906.9191734699982</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.1265943264681</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.400891308157</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.438374367745</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.172675760994</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.38442316275</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>651.3985183731427</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.60582160917</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.14006334809</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.000731372279</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>651.9203821015071</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>482.9841991736002</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>482.9841991736002</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>335.0711055912071</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1169.327103036485</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>879.9099329995245</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>651.9203821015071</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>651.9203821015071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422266</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481854</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>889.4262728751039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>503.6380202768597</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>92.6521154872521</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>81.62006937265267</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>81.62006937265267</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486388</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5282,7 +5282,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2411.578601136831</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2228.723766791735</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.122301814677</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1720.047075158874</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1465.362586952987</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>962.6357307816228</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>793.6995478537159</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782999</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038385</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797786</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>1144.284195611863</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7023,19 +7023,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.288530476235451e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-6.036702779561451e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.50758019582887</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012319</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.34460909112645</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>70.88187642684008</v>
+        <v>53.40527886851903</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304638987</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107151</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="K2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314492</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="G4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="H4" t="n">
-        <v>11167.03225179352</v>
-      </c>
       <c r="I4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870199.3374207038</v>
+        <v>-870199.3374207042</v>
       </c>
       <c r="C6" t="n">
-        <v>458545.4083068883</v>
+        <v>458545.408306889</v>
       </c>
       <c r="D6" t="n">
-        <v>458545.4083068883</v>
+        <v>458545.4083068878</v>
       </c>
       <c r="E6" t="n">
-        <v>208015.2558689494</v>
+        <v>207980.5179435134</v>
       </c>
       <c r="F6" t="n">
-        <v>533427.7176763043</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="G6" t="n">
-        <v>533427.7176763042</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="H6" t="n">
-        <v>533427.7176763045</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="I6" t="n">
-        <v>533427.7176763044</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="J6" t="n">
-        <v>315896.5152790266</v>
+        <v>315861.7773535913</v>
       </c>
       <c r="K6" t="n">
-        <v>533427.7176763044</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="L6" t="n">
-        <v>533427.7176763042</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="M6" t="n">
-        <v>448372.6897407923</v>
+        <v>448337.9518153568</v>
       </c>
       <c r="N6" t="n">
-        <v>533427.7176763044</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="O6" t="n">
-        <v>533427.7176763042</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="P6" t="n">
-        <v>533427.7176763043</v>
+        <v>533392.9797508689</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,40 +26960,40 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483752</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270.4601319683934</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>240.9947042380796</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>85.41454905009516</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>24.29446599512417</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>168.0688818921502</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>332.6248785068144</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>45.57345701452596</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944181</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>26.62005636186138</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>93.68940318050024</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-4.939277081144419e-13</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>556.7959610899863</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32248,7 +32248,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32728,7 +32728,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,13 +32941,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,10 +33506,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>626.4629682828346</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36376,10 +36376,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295751</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,10 +37154,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>483.8667238383902</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
